--- a/Data_preparation/datasets/final_data/TAIWAN_SEMIC_ADR.xlsx
+++ b/Data_preparation/datasets/final_data/TAIWAN_SEMIC_ADR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>17.59282018238525</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>18.3511962890625</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>19.34984969049578</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>17.00714320229318</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>5186523104</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>121765694799</v>
@@ -873,22 +765,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>17.91963123757877</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>17.12940216064453</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>18.07457892669017</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>16.52510794633888</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>5186523104</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>117772526784</v>
@@ -986,22 +878,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>16.23070965230288</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>17.01319122314453</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>17.6562231200483</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>15.65740407005878</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>5186523104</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>107608099109</v>
@@ -1099,22 +991,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>17.23011486182643</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>17.31533622741699</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>17.36956746817808</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>15.84333928489827</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>5186523104</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>117979964084</v>
@@ -1212,22 +1104,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>20.05015403506153</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>18.27601051330566</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>20.30581669025572</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>18.14430541955771</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>5186523104</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>135875193600</v>
@@ -1325,22 +1217,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>21.40557044963776</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>22.32995796203613</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>22.90066528088008</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>20.69821466199044</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>5186523104</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>136030775883</v>
@@ -1438,22 +1330,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>24.62887130900841</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>24.99862670898437</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>25.41661054090357</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>23.72860009134853</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>5186523104</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>158642067642</v>
@@ -1551,22 +1443,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>23.51156437329436</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>24.84589576721192</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>25.27995615309428</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>23.29453418035317</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>5186523104</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>149099687634</v>
@@ -1664,22 +1556,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>26.47764134629288</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>26.58213806152344</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>26.79113149198455</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>25.31211155723761</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>5186523104</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>170310738848</v>
@@ -1777,22 +1669,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>29.08337048277919</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>29.84697341918945</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>30.38647783407464</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>28.47746732683177</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>5186523104</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>181305220162</v>
@@ -1890,22 +1782,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>31.3990805691756</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>35.13410186767578</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>35.40800178313307</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>31.34927914535756</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>5186523104</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>194737157240</v>
@@ -2003,22 +1895,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>33.62349522680363</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>37.60752105712891</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>38.65332577954808</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>33.54879466332961</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>5186523104</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>205627917032</v>
@@ -2116,16 +2008,16 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>35.97239916639661</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>31.91367721557617</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>36.75260234352606</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>31.5318758629096</v>
       </c>
       <c r="H14">
         <v>5186523104</v>
@@ -2238,22 +2130,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>31.15366999532592</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>35.45547485351562</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>36.06633035569457</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>31.00741020551545</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>5186523104</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>189602941909</v>
@@ -2360,22 +2252,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>38.32909297949971</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>32.77976226806641</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>38.68184096024415</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>30.94719517108607</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>5186523104</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>229017120205</v>
@@ -2482,22 +2374,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>31.14507564582993</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>32.36678695678711</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>32.91741759169837</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>29.43295543851134</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>5186523104</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>191418068541</v>
@@ -2607,22 +2499,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>35.3436283757492</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>37.70101547241211</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>39.26687209341199</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>35.05110552995711</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>5186523104</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>212421676712</v>
@@ -2732,22 +2624,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>36.90145008144701</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>37.86973571777344</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>39.86849019185484</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>34.85827951902098</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>5186523104</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>203138600508</v>
@@ -2857,22 +2749,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>42.01661466299233</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>46.19501495361328</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>46.57974999364257</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>41.3724099322366</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>5186523104</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>241048816738</v>
@@ -2982,22 +2874,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>53.69856027779825</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>48.5989990234375</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>54.63558298385855</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>48.29266480941686</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>5186523104</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>301311020922</v>
@@ -3107,22 +2999,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>42.59331514957564</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>48.32335662841797</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>49.74222199352009</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>42.11126162334419</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>5186523104</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>247842576418</v>
@@ -3232,22 +3124,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>52.2033288817686</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>72.28928375244141</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>76.42193461658707</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>52.01089689692412</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>5186523104</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>294413539720</v>
@@ -3357,22 +3249,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>75.58227936684037</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>77.24940490722656</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>84.0652521243512</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>74.24674344576198</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>5186523104</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>420435188746</v>
@@ -3482,22 +3374,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>103.103887673482</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>112.3996047973633</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>125.913093915184</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>102.160437374903</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>5186523104</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>565489737028</v>
@@ -3607,22 +3499,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>114.020777072652</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>108.3851928710938</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>118.2822853335467</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>105.627747599346</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>5186523104</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>613409080114</v>
@@ -3732,22 +3624,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>111.9324772978053</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>108.7077789306641</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>117.2262034700634</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>104.4299299097196</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>5186523104</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>623158903167</v>
@@ -3857,22 +3749,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>104.8120521085647</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>106.402946472168</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>109.631536289722</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>100.6757210513928</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>5186523104</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>579025395627</v>
@@ -3982,22 +3874,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>116.6440899817867</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>115.2345504760742</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>136.255485552211</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>107.303546399048</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>5186523104</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>623936814580</v>
@@ -4107,22 +3999,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>99.87067124890606</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>87.746826171875</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>100.0406320305404</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>85.18797738450533</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>5186523104</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>540700293310</v>
@@ -4232,22 +4124,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>75.02463495169746</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>83.98506927490234</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>84.67797998265208</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>69.9938810347539</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>5186523104</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>423961720488</v>
@@ -4357,22 +4249,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>64.98689683773776</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>58.75357437133789</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>71.51612898264993</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>56.80625760458374</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>5186523104</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>355557376840</v>
@@ -4482,22 +4374,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>72.81426539960387</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>89.01868438720703</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>94.07776074769215</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>70.81751116882097</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>5186523104</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>386310808063</v>
@@ -4607,22 +4499,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>89.75228627399213</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>81.34735870361328</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>90.32161773300452</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>78.36558347202754</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>5186523104</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>482408798041</v>
@@ -4732,22 +4624,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>99.08191374529088</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>96.07796478271484</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>103.9754488727992</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>93.34533919323496</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>5186523104</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>523412921064</v>
@@ -4860,22 +4752,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>84.91729230851597</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>84.06986999511719</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>92.30055944471192</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>82.74516743759578</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>5186523104</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>450699393980</v>
@@ -4988,22 +4880,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>100.0655316771504</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>110.5467224121094</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>116.3108878938039</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>96.6892404408629</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>5186523104</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>539387076800</v>
@@ -5116,22 +5008,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>134.902511402015</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>134.9516448974609</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>145.848785480042</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>123.5926764458762</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>5186523104</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>705611651910</v>
@@ -5244,22 +5136,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>171.7501201123501</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>163.4307250976562</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>190.7053196752564</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>149.9363524534696</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>5186523104</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>901504811298</v>
@@ -5372,22 +5264,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>173.442623027762</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>188.5103912353516</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>210.3354242645952</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>168.9608770832319</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>5186523104</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>900778669686</v>
@@ -5500,22 +5392,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>195.5205034321339</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>207.7479858398437</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>224.699699409506</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>186.2605711730957</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>5186523104</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>1024291088034</v>
@@ -5628,22 +5520,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>165.7838078140205</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>166.0827178955078</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>171.1242808852935</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>133.7609007793342</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>5186523104</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>860966735600</v>
@@ -5756,22 +5648,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>227.4299926757812</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>241.6199951171875</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>248.2799987792969</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>221.1799926757812</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>5186523104</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>1174695594270</v>
